--- a/Resource/ThietkedamTCVN5574-2018.xlsx
+++ b/Resource/ThietkedamTCVN5574-2018.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THXD\DATN\ChuyendeEtabs\Program\GoodLuck\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D27F8B-6AE1-49F6-BFEC-7D64FEF939A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89402986-ABC8-4270-AF65-8EB8630E77C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DESIGN" sheetId="61" r:id="rId1"/>
-    <sheet name="Bang tra" sheetId="59" r:id="rId2"/>
+    <sheet name="ThepChu" sheetId="61" r:id="rId1"/>
+    <sheet name="Cotdai" sheetId="63" r:id="rId2"/>
+    <sheet name="Bang tra" sheetId="59" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DESIGN!$D$14:$AC$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ThepChu!$D$14:$AC$15</definedName>
     <definedName name="duong_kinh">#REF!</definedName>
     <definedName name="input">#REF!</definedName>
     <definedName name="input_design">#REF!</definedName>
-    <definedName name="n_g">DESIGN!#REF!</definedName>
-    <definedName name="n_n">DESIGN!#REF!</definedName>
-    <definedName name="output_report">DESIGN!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DESIGN!$A$1:$AD$34</definedName>
-    <definedName name="vung1">OFFSET(DESIGN!$B$1,0,0,COUNTA(DESIGN!$F:$F)+15,34)</definedName>
-    <definedName name="vung2">OFFSET(DESIGN!#REF!,0,0,COUNTA(DESIGN!#REF!)+2,22)</definedName>
+    <definedName name="n_g">ThepChu!#REF!</definedName>
+    <definedName name="n_n">ThepChu!#REF!</definedName>
+    <definedName name="output_report">ThepChu!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Cotdai!$A$1:$M$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ThepChu!$A$1:$AC$34</definedName>
+    <definedName name="vung1">OFFSET(ThepChu!$B$1,0,0,COUNTA(ThepChu!$F:$F)+15,34)</definedName>
+    <definedName name="vung2">OFFSET(ThepChu!#REF!,0,0,COUNTA(ThepChu!#REF!)+2,22)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="173">
   <si>
     <t>B30</t>
   </si>
@@ -1270,9 +1272,6 @@
     <t>2. Vật liệu:</t>
   </si>
   <si>
-    <t>3. Tính toán :</t>
-  </si>
-  <si>
     <r>
       <t>a</t>
     </r>
@@ -1295,17 +1294,1160 @@
   </si>
   <si>
     <t>Kỹ sư thiết kế:</t>
+  </si>
+  <si>
+    <t>KiỂM TRA KHẢ NĂNG CHỊU CẮT CỦA CỐT ĐAI THEO TCVN 5574-2018</t>
+  </si>
+  <si>
+    <t>3. Tính toán thép chủ :</t>
+  </si>
+  <si>
+    <t>kN</t>
+  </si>
+  <si>
+    <t>Khả năng chịu cắt của bê tông là:</t>
+  </si>
+  <si>
+    <t>+ Bê tông chịu nén dọc trục:</t>
+  </si>
+  <si>
+    <r>
+      <t>φ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.1N/R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>bt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>bh</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>=&gt;(1+φf+φn) =</t>
+  </si>
+  <si>
+    <t>+ Bê tông chịu kéo dọc trục:</t>
+  </si>
+  <si>
+    <r>
+      <t>φ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = -0.2N/R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>bt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>bh</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>Dự án/Project:</t>
+  </si>
+  <si>
+    <t>Ngày/Date:</t>
+  </si>
+  <si>
+    <t>Hạng mục/Item:</t>
+  </si>
+  <si>
+    <t>Kiểm/Check:</t>
+  </si>
+  <si>
+    <t>A. THÔNG SỐ ĐẦU VÀO</t>
+  </si>
+  <si>
+    <t>1. Tiết diện của dầm</t>
+  </si>
+  <si>
+    <t>Bề rộng của dầm</t>
+  </si>
+  <si>
+    <t>b =</t>
+  </si>
+  <si>
+    <t>Chiều cao dầm</t>
+  </si>
+  <si>
+    <t>h =</t>
+  </si>
+  <si>
+    <t>Chiều dày lớp bê tông bảo vệ của dầm</t>
+  </si>
+  <si>
+    <t>abv =</t>
+  </si>
+  <si>
+    <t>2. Tải trọng tính toán:</t>
+  </si>
+  <si>
+    <t>Lực cắt tính toán lớn nhất trong dầm</t>
+  </si>
+  <si>
+    <t>Qmax =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lực dọc trong dầm </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nmax =</t>
+  </si>
+  <si>
+    <t>3. Vật liệu dùng để tính toán:</t>
+  </si>
+  <si>
+    <t>Sử dụng bê tông có cường độ</t>
+  </si>
+  <si>
+    <t>Cường độ chịu nén của bê tông ở TTGH1</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <t>Mpa</t>
+  </si>
+  <si>
+    <t>Cường độ chịu kéo của bê tông ở TTGH1</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <t>Modun đàn hồi của bê tông</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <t>Cường độ thép chịu kéo</t>
+  </si>
+  <si>
+    <t>Cường độ chịu kéo, nén của cốt đai</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <t>Cường độ chịu cắt của cốt đai</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <t>Modun đàn hồi của cốt thép</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <t>Đường kính cốt đai</t>
+  </si>
+  <si>
+    <r>
+      <t>φ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>Số nhánh đai</t>
+  </si>
+  <si>
+    <t>n =</t>
+  </si>
+  <si>
+    <t>nhánh</t>
+  </si>
+  <si>
+    <t>Khoảng cách đai</t>
+  </si>
+  <si>
+    <t>S =</t>
+  </si>
+  <si>
+    <t>B. KIỂM TRA KHẢ NĂNG CHỊU CẮT CỦA CỐT ĐAI ĐÃ CHỌN</t>
+  </si>
+  <si>
+    <t>1. Khả năng chịu cắt của bê tông và cốt đai</t>
+  </si>
+  <si>
+    <t>Khả năng chịu cắt tối thiểu của bê tông</t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>bmin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ≤ ϕb3(1+ϕf+ϕn).Rbt.b.ho =</t>
+    </r>
+  </si>
+  <si>
+    <t>Cường độ chịu cắt của 1 vòng đai</t>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = n.R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/S =</t>
+    </r>
+  </si>
+  <si>
+    <t>kN/cm</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ϕ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1+ϕf+ϕn).R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>bt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.b.h²o =</t>
+    </r>
+  </si>
+  <si>
+    <t>kN.cm</t>
+  </si>
+  <si>
+    <t>Chiều dài nguy hiểm nhất của tiết diện nghiêng</t>
+  </si>
+  <si>
+    <t>C*=sqrt(Mb/qsw)=</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Suy ra</t>
+  </si>
+  <si>
+    <t>C =</t>
+  </si>
+  <si>
+    <t>Co =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khả năng chịu cắt của bê tông </t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>= max(Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>bmin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>; Mb/C) =</t>
+    </r>
+  </si>
+  <si>
+    <t>Khả năng chịu cắt của cốt đai là:</t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ϕ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>Khả năng chịu cắt của cốt đai và bêtông là:</t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <t>Kiểm tra khả năng chịu cắt của dầm</t>
+  </si>
+  <si>
+    <t>2. Khả năng bê tông không bị phá hoại trên tiết diện nghiêng - ứng suất nén chính</t>
+  </si>
+  <si>
+    <t>Ta có</t>
+  </si>
+  <si>
+    <r>
+      <t>ϕ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>wl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =1+5(E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>na</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)/(E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>bs)=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ϕ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 1 - βγ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <t>Ứng suất nén chính</t>
+  </si>
+  <si>
+    <r>
+      <t>0.3ϕ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>wl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ϕ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>bh</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <t>Kiểm tra điều kiện</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">max </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt; 0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ϕ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>wl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ϕ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>bh</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+  </si>
+  <si>
+    <t>Đoạn giữa nhịp chỉ đặt cần cốt đai theo cấu tạo :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> min(3/4h</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,300) =</t>
+    </r>
+  </si>
+  <si>
+    <t>Chọn</t>
+  </si>
+  <si>
+    <t>Địa điểm/Address</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="#,###&quot;kN&quot;"/>
   </numFmts>
-  <fonts count="83" x14ac:knownFonts="1">
+  <fonts count="98" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1864,8 +3006,104 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="30"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1926,8 +3164,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2060,15 +3310,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2106,19 +3347,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashDotDot">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dashed">
         <color auto="1"/>
       </left>
@@ -2132,7 +3360,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="258">
+  <cellStyleXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
@@ -2391,8 +3619,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="91" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="62" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2586,21 +3818,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="62" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2611,16 +3828,9 @@
     <xf numFmtId="0" fontId="62" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="63" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="73" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2637,6 +3847,112 @@
     <xf numFmtId="0" fontId="77" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="63" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="63" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="63" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="85" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="97" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="3" borderId="2" xfId="259" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="92" fillId="3" borderId="2" xfId="259" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="63" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2652,11 +3968,35 @@
     <xf numFmtId="2" fontId="62" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="63" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="62" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="62" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="62" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="79" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="62" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2681,50 +4021,75 @@
     <xf numFmtId="0" fontId="68" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="62" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="3" borderId="1" xfId="259" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="3" borderId="3" xfId="259" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="3" borderId="4" xfId="259" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="92" fillId="3" borderId="2" xfId="259" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="92" fillId="3" borderId="4" xfId="259" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="63" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="1" xfId="258" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="3" borderId="1" xfId="259" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="3" borderId="2" xfId="259" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="63" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="81" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="63" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="63" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="258">
+  <cellStyles count="260">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 100" xfId="100" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2982,7 +4347,9 @@
     <cellStyle name="Normal 97" xfId="97" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
     <cellStyle name="Normal 98" xfId="98" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
     <cellStyle name="Normal 99" xfId="99" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Normal_Beam" xfId="258" xr:uid="{9FBD225D-D0D9-4C02-8CC1-62F16B04A013}"/>
     <cellStyle name="Normal_Lech tam xien" xfId="1" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Tieu de phu" xfId="259" xr:uid="{64A26EC3-D52D-4C87-933D-7BB562C743C4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3328,10 +4695,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD157"/>
+  <dimension ref="A1:AF468"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3366,48 +4733,50 @@
     <col min="31" max="16384" width="9.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="105" t="s">
+    <row r="1" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="70" t="s">
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="152" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="150"/>
+    </row>
+    <row r="2" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="5"/>
@@ -3426,17 +4795,18 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="AD2" s="72"/>
-    </row>
-    <row r="3" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="150"/>
+    </row>
+    <row r="3" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -3453,17 +4823,18 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="AD3" s="72"/>
-    </row>
-    <row r="4" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+    </row>
+    <row r="4" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="108"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -3480,17 +4851,18 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="AD4" s="72"/>
-    </row>
-    <row r="5" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="73"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="AE4" s="150"/>
+      <c r="AF4" s="150"/>
+    </row>
+    <row r="5" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -3507,17 +4879,18 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="AD5" s="72"/>
-    </row>
-    <row r="6" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="73"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="AE5" s="150"/>
+      <c r="AF5" s="150"/>
+    </row>
+    <row r="6" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="69"/>
+      <c r="B6" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -3534,16 +4907,17 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="AD6" s="72"/>
-    </row>
-    <row r="7" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="AE6" s="150"/>
+      <c r="AF6" s="150"/>
+    </row>
+    <row r="7" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
       <c r="B7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="6"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -3561,8 +4935,8 @@
       <c r="R7" s="4"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
+      <c r="U7" s="124"/>
+      <c r="V7" s="124"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
@@ -3570,22 +4944,24 @@
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
-      <c r="AD7" s="61"/>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="150"/>
+    </row>
+    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="70"/>
       <c r="D8" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="102">
+      <c r="H8" s="71">
         <f>HLOOKUP($F$8,'Bang tra'!$B$5:$M$10,2,0)</f>
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>10</v>
@@ -3593,9 +4969,9 @@
       <c r="J8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="103">
+      <c r="K8" s="72">
         <f>HLOOKUP($F$8,'Bang tra'!$B$5:$M$10,3,0)</f>
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>10</v>
@@ -3603,9 +4979,9 @@
       <c r="M8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="104">
+      <c r="N8" s="73">
         <f>HLOOKUP($F$8,'Bang tra'!$B$5:$M$10,6,0)</f>
-        <v>34500</v>
+        <v>32500</v>
       </c>
       <c r="O8" s="10" t="s">
         <v>10</v>
@@ -3621,17 +4997,19 @@
         <v>0.9</v>
       </c>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="62"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="78"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="150"/>
+    </row>
+    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="70"/>
       <c r="F9" s="25"/>
       <c r="J9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="49">
         <f>HLOOKUP($F$8,'Bang tra'!$B$5:$M$10,4,0)</f>
-        <v>25.5</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>10</v>
@@ -3650,10 +5028,12 @@
       <c r="AC9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AD9" s="62"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
+      <c r="AD9" s="149"/>
+      <c r="AE9" s="150"/>
+      <c r="AF9" s="150"/>
+    </row>
+    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="69"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -3694,11 +5074,11 @@
       <c r="P10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="101">
+      <c r="Q10" s="119">
         <f>HLOOKUP($F$10,'Bang tra'!$B$14:$I$19,6,0)</f>
         <v>200000</v>
       </c>
-      <c r="R10" s="101"/>
+      <c r="R10" s="119"/>
       <c r="S10" s="10" t="s">
         <v>10</v>
       </c>
@@ -3717,10 +5097,12 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="63"/>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="150"/>
+    </row>
+    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="H11" s="4"/>
@@ -3745,14 +5127,16 @@
       <c r="AA11" s="16"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="64"/>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="150"/>
+      <c r="AF11" s="150"/>
+    </row>
+    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
       <c r="B12" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="68"/>
+        <v>90</v>
+      </c>
+      <c r="C12" s="63"/>
       <c r="D12" s="17"/>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
@@ -3779,10 +5163,12 @@
       <c r="AA12" s="19"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-      <c r="AD12" s="65"/>
-    </row>
-    <row r="13" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="150"/>
+      <c r="AF12" s="150"/>
+    </row>
+    <row r="13" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -3809,560 +5195,874 @@
       <c r="AA13" s="19"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
-      <c r="AD13" s="65"/>
-    </row>
-    <row r="14" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="C14" s="93" t="s">
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="150"/>
+      <c r="AF13" s="150"/>
+    </row>
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="C14" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="94" t="s">
+      <c r="E14" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="96" t="s">
+      <c r="F14" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="99" t="s">
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="91" t="s">
+      <c r="L14" s="126"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="88" t="s">
+      <c r="O14" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="88" t="s">
+      <c r="P14" s="127"/>
+      <c r="Q14" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="82" t="s">
+      <c r="R14" s="126"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="126"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="82" t="s">
+      <c r="W14" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="X14" s="82" t="s">
+      <c r="X14" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="Y14" s="82" t="s">
+      <c r="Y14" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="Z14" s="82" t="s">
+      <c r="Z14" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="AA14" s="80" t="s">
+      <c r="AA14" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AB14" s="80" t="s">
+      <c r="AB14" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="AC14" s="84" t="s">
+      <c r="AC14" s="120" t="s">
         <v>42</v>
       </c>
       <c r="AD14" s="55"/>
     </row>
-    <row r="15" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="67" t="s">
+    <row r="15" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="62" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="100"/>
-      <c r="K15" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="74" t="s">
+      <c r="J15" s="118"/>
+      <c r="K15" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="75" t="s">
+      <c r="M15" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="92"/>
+      <c r="N15" s="129"/>
       <c r="O15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="P15" s="67" t="s">
+      <c r="P15" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="88" t="s">
+      <c r="Q15" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="90"/>
+      <c r="R15" s="127"/>
       <c r="S15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="T15" s="88" t="s">
+      <c r="T15" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="U15" s="90"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="85"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="112"/>
+      <c r="W15" s="112"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="112"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="121"/>
       <c r="AD15" s="55"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="77"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="77"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="77"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="77"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="77"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="77"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="77"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="77"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="77"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="77"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="77"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="77"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="77"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="77"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="77"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="77"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="77"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="77"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="77"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="77"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="77"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="77"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="77"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="77"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="77"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="77"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="77"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="77"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="77"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="77"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="77"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="77"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="77"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="77"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="77"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="77"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="77"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="77"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="77"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="77"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="77"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="77"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="77"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="77"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="77"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="77"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="77"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="77"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="77"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="77"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="77"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="77"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="77"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="77"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="77"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="77"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="77"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="77"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="77"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="77"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="77"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="77"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="77"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="77"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="77"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="77"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="77"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="77"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="77"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="77"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="77"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="77"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="77"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="77"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="77"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="77"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="77"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="77"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="77"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="77"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="77"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="77"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="77"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="77"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="77"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="77"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="77"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="77"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="77"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="77"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="77"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="77"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="77"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="77"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="77"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="77"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="77"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="77"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="77"/>
-    </row>
+    <row r="16" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
+    </row>
+    <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
+    </row>
+    <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+    </row>
+    <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69"/>
+    </row>
+    <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69"/>
+    </row>
+    <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="69"/>
+    </row>
+    <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="69"/>
+    </row>
+    <row r="23" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="69"/>
+    </row>
+    <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
+    </row>
+    <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="69"/>
+    </row>
+    <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="69"/>
+    </row>
+    <row r="27" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="69"/>
+    </row>
+    <row r="28" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="69"/>
+    </row>
+    <row r="29" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="69"/>
+    </row>
+    <row r="30" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+    </row>
+    <row r="31" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+    </row>
+    <row r="32" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+    </row>
+    <row r="33" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+    </row>
+    <row r="34" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+    </row>
+    <row r="35" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+    </row>
+    <row r="36" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+    </row>
+    <row r="37" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
+    </row>
+    <row r="38" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="69"/>
+    </row>
+    <row r="39" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="69"/>
+    </row>
+    <row r="40" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="69"/>
+    </row>
+    <row r="41" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="69"/>
+    </row>
+    <row r="42" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="69"/>
+    </row>
+    <row r="43" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="69"/>
+    </row>
+    <row r="44" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="69"/>
+    </row>
+    <row r="45" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="69"/>
+    </row>
+    <row r="46" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="69"/>
+    </row>
+    <row r="47" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="69"/>
+    </row>
+    <row r="48" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
+    </row>
+    <row r="49" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="69"/>
+    </row>
+    <row r="50" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="69"/>
+    </row>
+    <row r="51" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="69"/>
+    </row>
+    <row r="52" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="69"/>
+    </row>
+    <row r="53" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="69"/>
+    </row>
+    <row r="54" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="69"/>
+    </row>
+    <row r="55" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="69"/>
+    </row>
+    <row r="56" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="69"/>
+    </row>
+    <row r="57" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="69"/>
+    </row>
+    <row r="58" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="69"/>
+    </row>
+    <row r="59" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="69"/>
+    </row>
+    <row r="60" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="69"/>
+    </row>
+    <row r="61" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="69"/>
+    </row>
+    <row r="62" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="69"/>
+    </row>
+    <row r="63" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="69"/>
+    </row>
+    <row r="64" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="69"/>
+    </row>
+    <row r="65" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="69"/>
+    </row>
+    <row r="66" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="69"/>
+    </row>
+    <row r="67" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="69"/>
+    </row>
+    <row r="68" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="69"/>
+    </row>
+    <row r="69" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="69"/>
+    </row>
+    <row r="70" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="69"/>
+    </row>
+    <row r="71" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="69"/>
+    </row>
+    <row r="72" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="69"/>
+    </row>
+    <row r="73" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="69"/>
+    </row>
+    <row r="74" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="69"/>
+    </row>
+    <row r="75" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="69"/>
+    </row>
+    <row r="76" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="69"/>
+    </row>
+    <row r="77" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="69"/>
+    </row>
+    <row r="78" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="69"/>
+    </row>
+    <row r="79" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="69"/>
+    </row>
+    <row r="80" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="69"/>
+    </row>
+    <row r="81" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="69"/>
+    </row>
+    <row r="82" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="69"/>
+    </row>
+    <row r="83" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="69"/>
+    </row>
+    <row r="84" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="69"/>
+    </row>
+    <row r="85" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="69"/>
+    </row>
+    <row r="86" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="69"/>
+    </row>
+    <row r="87" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="69"/>
+    </row>
+    <row r="88" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="69"/>
+    </row>
+    <row r="89" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="69"/>
+    </row>
+    <row r="90" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="69"/>
+    </row>
+    <row r="91" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="69"/>
+    </row>
+    <row r="92" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="69"/>
+    </row>
+    <row r="93" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="69"/>
+    </row>
+    <row r="94" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="69"/>
+    </row>
+    <row r="95" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="69"/>
+    </row>
+    <row r="96" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="69"/>
+    </row>
+    <row r="97" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="69"/>
+    </row>
+    <row r="98" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="69"/>
+    </row>
+    <row r="99" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="69"/>
+    </row>
+    <row r="100" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="69"/>
+    </row>
+    <row r="101" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="69"/>
+    </row>
+    <row r="102" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="69"/>
+    </row>
+    <row r="103" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="69"/>
+    </row>
+    <row r="104" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="69"/>
+    </row>
+    <row r="105" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="69"/>
+    </row>
+    <row r="106" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="69"/>
+    </row>
+    <row r="107" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="69"/>
+    </row>
+    <row r="108" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="69"/>
+    </row>
+    <row r="109" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="69"/>
+    </row>
+    <row r="110" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="69"/>
+    </row>
+    <row r="111" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="69"/>
+    </row>
+    <row r="112" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="69"/>
+    </row>
+    <row r="113" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="69"/>
+    </row>
+    <row r="114" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="69"/>
+    </row>
+    <row r="115" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="69"/>
+    </row>
+    <row r="116" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="69"/>
+    </row>
+    <row r="117" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="69"/>
+    </row>
+    <row r="118" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="69"/>
+    </row>
+    <row r="119" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="69"/>
+    </row>
+    <row r="120" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="69"/>
+    </row>
+    <row r="121" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="69"/>
+    </row>
+    <row r="122" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="69"/>
+    </row>
+    <row r="123" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="69"/>
+    </row>
+    <row r="124" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="69"/>
+    </row>
+    <row r="125" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="69"/>
+    </row>
+    <row r="126" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="69"/>
+    </row>
+    <row r="127" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="69"/>
+    </row>
+    <row r="128" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="69"/>
+    </row>
+    <row r="129" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="69"/>
+    </row>
+    <row r="130" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="69"/>
+    </row>
+    <row r="131" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="69"/>
+    </row>
+    <row r="132" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="69"/>
+    </row>
+    <row r="133" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="69"/>
+    </row>
+    <row r="134" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="69"/>
+    </row>
+    <row r="135" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="69"/>
+    </row>
+    <row r="136" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="69"/>
+    </row>
+    <row r="137" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="69"/>
+    </row>
+    <row r="138" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="69"/>
+    </row>
+    <row r="139" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="69"/>
+    </row>
+    <row r="140" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="69"/>
+    </row>
+    <row r="141" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="69"/>
+    </row>
+    <row r="142" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="69"/>
+    </row>
+    <row r="143" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="69"/>
+    </row>
+    <row r="144" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="69"/>
+    </row>
+    <row r="145" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="69"/>
+    </row>
+    <row r="146" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="69"/>
+    </row>
+    <row r="147" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="69"/>
+    </row>
+    <row r="148" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="69"/>
+    </row>
+    <row r="149" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="69"/>
+    </row>
+    <row r="150" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="69"/>
+    </row>
+    <row r="151" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="69"/>
+    </row>
+    <row r="152" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="69"/>
+    </row>
+    <row r="153" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="69"/>
+    </row>
+    <row r="154" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="69"/>
+    </row>
+    <row r="155" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="69"/>
+    </row>
+    <row r="156" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="69"/>
+    </row>
+    <row r="157" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="69"/>
+    </row>
+    <row r="158" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection deleteColumns="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:BU20">
     <sortCondition ref="D16:D20"/>
   </sortState>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AC14:AC15"/>
     <mergeCell ref="X14:X15"/>
     <mergeCell ref="Y14:Y15"/>
@@ -4392,14 +6092,14 @@
   </mergeCells>
   <phoneticPr fontId="80" type="noConversion"/>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.78740157480314954" bottom="0.39370078740157477" header="0.19685039370078738" footer="0.19685039370078738"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" max="33" man="1"/>
   </colBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Bang tra'!$B$14:$I$14</xm:f>
@@ -4419,6 +6119,1124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8092BB-0A4D-413F-B232-EB3C453E10BF}">
+  <dimension ref="A1:W48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="146"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+    </row>
+    <row r="2" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="143"/>
+    </row>
+    <row r="3" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="138" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="144"/>
+      <c r="M3" s="145"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+    </row>
+    <row r="6" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="132" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="132"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="O7" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+    </row>
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="79"/>
+      <c r="B8" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="89">
+        <v>200</v>
+      </c>
+      <c r="M8" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" s="82">
+        <f>0.1*$L$13/($L$18*$L$8*$L$9)*1000</f>
+        <v>3.6231884057971019E-3</v>
+      </c>
+      <c r="U8" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="V8" s="76"/>
+      <c r="W8" s="102">
+        <f>IF(1+T8&gt;1,1,1+T8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="79"/>
+      <c r="B9" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="89">
+        <v>600</v>
+      </c>
+      <c r="M9" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" s="82">
+        <f>-0.2*$L$13/($L$18*$L$8*$L$9)*1000</f>
+        <v>-7.2463768115942039E-3</v>
+      </c>
+      <c r="U9" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" s="76"/>
+      <c r="W9" s="102">
+        <f>ROUND(1+T9,2)</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="79"/>
+      <c r="B10" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="89">
+        <v>30</v>
+      </c>
+      <c r="M10" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="V10" s="76"/>
+      <c r="W10" s="103">
+        <f>IF($L$13&lt;0,W9,W8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="80"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="76"/>
+      <c r="B12" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="90">
+        <v>105</v>
+      </c>
+      <c r="M12" s="80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="76"/>
+      <c r="B13" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="90">
+        <v>5</v>
+      </c>
+      <c r="M13" s="80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="76"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="80"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="80"/>
+    </row>
+    <row r="16" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="76"/>
+      <c r="B16" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="80"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="76"/>
+      <c r="B17" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="94">
+        <f>HLOOKUP(L16,'Bang tra'!$B$5:$M$10,2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="M17" s="95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="76"/>
+      <c r="B18" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="94">
+        <f>HLOOKUP($L$16,'Bang tra'!$B$5:$M$10,3,0)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M18" s="95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="76"/>
+      <c r="B19" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="94">
+        <f>HLOOKUP($L$16,'Bang tra'!$B$5:$M$10,6,0)</f>
+        <v>32500</v>
+      </c>
+      <c r="M19" s="95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="76"/>
+      <c r="B20" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="95"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="76"/>
+      <c r="B21" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="76"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" s="94">
+        <f>HLOOKUP($L$20,'Bang tra'!$B$14:$I$19,3,0)</f>
+        <v>210</v>
+      </c>
+      <c r="M21" s="95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="76"/>
+      <c r="B22" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="94">
+        <f>HLOOKUP($L$20,'Bang tra'!$B$14:$I$19,4,0)</f>
+        <v>210</v>
+      </c>
+      <c r="M22" s="95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="76"/>
+      <c r="B23" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="94">
+        <f>HLOOKUP($L$20,'Bang tra'!$B$14:$I$19,6,0)</f>
+        <v>200000</v>
+      </c>
+      <c r="M23" s="95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="80"/>
+      <c r="B24" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="94">
+        <v>6</v>
+      </c>
+      <c r="M24" s="95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="76"/>
+      <c r="B25" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="90">
+        <v>2</v>
+      </c>
+      <c r="M25" s="95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="76"/>
+      <c r="B26" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="L26" s="90">
+        <v>200</v>
+      </c>
+      <c r="M26" s="95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="76"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="97"/>
+    </row>
+    <row r="28" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+    </row>
+    <row r="29" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="80"/>
+      <c r="B30" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" s="98">
+        <f>0.6*W10*L18*L8*(L9-L10)/1000</f>
+        <v>78.66</v>
+      </c>
+      <c r="M30" s="80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="80"/>
+      <c r="B31" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" s="99">
+        <f>L25*L22*ROUND(L24^2*3.1416/4,3)/L26/100</f>
+        <v>0.593754</v>
+      </c>
+      <c r="M31" s="80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="80"/>
+      <c r="B32" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" s="100">
+        <f>2*W10*L18*L8*(L9-L10)^2/1000</f>
+        <v>149453.99999999997</v>
+      </c>
+      <c r="M32" s="80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="80"/>
+      <c r="B33" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="L33" s="98">
+        <f>SQRT(L32/L31)</f>
+        <v>501.70738908991945</v>
+      </c>
+      <c r="M33" s="80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="80"/>
+      <c r="B34" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="98">
+        <f>IF(L33&lt;(L9-L10)/10,(L9-L10)/10,L33)</f>
+        <v>501.70738908991945</v>
+      </c>
+      <c r="M34" s="80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="80"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="L35" s="98">
+        <f>IF(L34&gt;2*(L9-L10)/10,2*(L9-L10)/10,L33)</f>
+        <v>114</v>
+      </c>
+      <c r="M35" s="80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="79"/>
+      <c r="B36" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="L36" s="98">
+        <f>MAX(L30,L32/L34)</f>
+        <v>297.89076910169604</v>
+      </c>
+      <c r="M36" s="80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="79"/>
+      <c r="B37" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="L37" s="76">
+        <f>ROUND(0.75*L31*L35,2)</f>
+        <v>50.77</v>
+      </c>
+      <c r="M37" s="80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="79"/>
+      <c r="B38" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="L38" s="101">
+        <f>L36+L37</f>
+        <v>348.66076910169602</v>
+      </c>
+      <c r="M38" s="80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="79"/>
+      <c r="B39" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="75" t="str">
+        <f>IF(L38&gt;L12,"OK","N.G")</f>
+        <v>OK</v>
+      </c>
+      <c r="M39" s="76"/>
+    </row>
+    <row r="40" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+    </row>
+    <row r="41" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="79"/>
+      <c r="B42" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="L42" s="100">
+        <f>1+5*L23*L25*ROUND(L24^2*3.1416/4,3)/(L19*L8*L26)</f>
+        <v>1.0434984615384615</v>
+      </c>
+      <c r="M42" s="76"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="79"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="L43" s="76">
+        <f>1-0.01*L17</f>
+        <v>0.83</v>
+      </c>
+      <c r="M43" s="76"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="79"/>
+      <c r="B44" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="L44" s="101">
+        <f>0.3*L42*L43*L17*L8*(L9-L10)/1000</f>
+        <v>503.55270459692298</v>
+      </c>
+      <c r="M44" s="80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="79"/>
+      <c r="B45" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="L45" s="75" t="str">
+        <f>IF(L44&gt;L12,"OK","N.G")</f>
+        <v>OK</v>
+      </c>
+      <c r="M45" s="76"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="79"/>
+      <c r="B46" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="L46" s="76">
+        <f>MIN(3/4*L9,300)</f>
+        <v>300</v>
+      </c>
+      <c r="M46" s="80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="79"/>
+      <c r="B47" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="78">
+        <v>200</v>
+      </c>
+      <c r="M47" s="80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="79"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="L16" name="Range1_1_1"/>
+  </protectedRanges>
+  <mergeCells count="10">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A4:M5"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14" xr:uid="{F647CAF9-7A80-427D-A074-64E670D45B11}">
+      <formula1>"Kéo, Nén"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20" xr:uid="{CDBA08E7-605E-430A-95D4-6692768D2EEF}">
+      <formula1>INDIRECT("'Table'!$X$5:$X$16")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L16" xr:uid="{AE6B0BFD-BE8B-4751-A67D-6013CBFE38BF}">
+      <formula1>"B15,B20,B22.5,B25,B30,B35,B40"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF92D050"/>
